--- a/data/zhiru-e21-ds/data.xlsx
+++ b/data/zhiru-e21-ds/data.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="dtypes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="projects" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="types" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="restrictions" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="groups" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="students" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="dtypes" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="projects" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="types" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="restrictions" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,304 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="162">
+  <si>
+    <t xml:space="preserve">ibwei21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jonpe21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moirs21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yobal21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aevf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fstef17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loton21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sibri18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elazi13@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emgeh21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emkon21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inlun13@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cehan10@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">niare21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rusoe04@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zatal21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joghi04@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jopre21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teole12@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dafin07@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mapor21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raha717@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rakja12@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awaev18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rikla17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sebni15@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shtho17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alhoe21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdra18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datrz21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">essoe21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asbha13@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beeper21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moham15@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ribor17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esras1@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lemag21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lnie906@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mdhaq16@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arhan21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camio18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naimt18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sajul18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frhen16@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rhans21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sosan17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trchr21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dosoe21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krrie18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mosto05@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maami17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacet21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lborg21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mikaj18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raje115@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antan21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damad15@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haahm16@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rajoe21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chsch21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frtha21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jajae21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khama12@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeban21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mgram15@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motro21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nabre21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alklu21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bamir07@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guols18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nijaq21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">driis21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ianoe17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jebru17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maheu21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ankri17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaske21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">joni217@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mavol18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigam01@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caust21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diped18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mikli21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idhor21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kasth@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">makol21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tohan17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emmyl21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lakys17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marir21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yaras21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marma18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mathu21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micol21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phjen18@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fpede21@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kikap17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">louit17@student.sdu.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olrob18@student.sdu.dk</t>
+  </si>
   <si>
     <t xml:space="preserve">grp_id</t>
   </si>
@@ -80,301 +378,25 @@
     <t xml:space="preserve">exp_groupwork</t>
   </si>
   <si>
-    <t xml:space="preserve">aevf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alhoe21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alklu21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ankri17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">antan21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arhan21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asbha13@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdra18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">awaev18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bamir07@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beeper21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bigam01@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">camio18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caust21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cehan10@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chsch21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dafin07@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damad15@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datrz21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diped18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dosoe21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">driis21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elazi13@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emgeh21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emkon21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmyl21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esras1@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">essoe21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fpede21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frhen16@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frtha21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fstef17@student.sdu.dk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guols18@student.SDU.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">hacet21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">haahm16@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ianoe17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibwei21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idhor21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inlun13@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jajae21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jaske21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jeban21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jebru17@student.sdu.dk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Joghi04@student.sdu.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">joni217@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jonpe21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jopre21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kasth@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khama12@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kikap17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">krrie18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lakys17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lborg21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lemag21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnie906@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loton21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">louit17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maheu21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">makol21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mapor21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marir21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marma18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mathu21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mavol18@student.sdu.dk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mdhaq16@student.sdu.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">mgram15@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micol21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mikaj18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mikli21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moham15@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moirs21@student.sdu.dk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mosto05@student.sdu.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">motro21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maami17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nabre21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">naimt18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niare21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nijaq21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">olrob18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phjen18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raha717@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raje115@student.sdu.dk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rajoe21@student.sdu.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">rakja12@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rhans21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ribor17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rikla17@student.sdu.dk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rusoe04@student.sdu.dk</t>
   </si>
   <si>
-    <t xml:space="preserve">sajul18@student.sdu.dk</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sebni15@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shtho17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sibri18@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sosan17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teole12@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tohan17@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trchr21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yaras21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yobal21@student.sdu.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zatal21@student.sdu.dk</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -595,9 +617,829 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B99"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="3.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -623,58 +1465,58 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -735,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -788,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -841,7 +1683,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -894,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -947,7 +1789,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -1000,7 +1842,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -1053,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -1106,7 +1948,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -1159,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -1212,7 +2054,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -1265,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -1318,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -1371,7 +2213,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -1424,7 +2266,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -1477,7 +2319,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -1530,7 +2372,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -1583,7 +2425,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -1636,7 +2478,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
@@ -1689,7 +2531,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -1742,7 +2584,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -1795,7 +2637,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -1848,7 +2690,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -1901,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -1954,7 +2796,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -2007,7 +2849,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -2060,7 +2902,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -2113,7 +2955,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -2166,7 +3008,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -2219,7 +3061,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -2272,7 +3114,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -2325,7 +3167,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -2378,7 +3220,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -2484,7 +3326,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -2537,7 +3379,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -2590,7 +3432,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -2643,7 +3485,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -2696,7 +3538,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -2749,7 +3591,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -2802,7 +3644,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
@@ -2855,7 +3697,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>1</v>
@@ -2908,7 +3750,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>1</v>
@@ -2961,7 +3803,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>1</v>
@@ -3014,7 +3856,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>1</v>
@@ -3067,7 +3909,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>1</v>
@@ -3120,7 +3962,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>1</v>
@@ -3173,7 +4015,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>1</v>
@@ -3226,7 +4068,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>1</v>
@@ -3279,7 +4121,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1</v>
@@ -3332,7 +4174,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>1</v>
@@ -3385,7 +4227,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>1</v>
@@ -3438,7 +4280,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>1</v>
@@ -3491,7 +4333,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>1</v>
@@ -3544,7 +4386,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>1</v>
@@ -3597,7 +4439,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>1</v>
@@ -3650,7 +4492,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>1</v>
@@ -3703,7 +4545,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>1</v>
@@ -3756,7 +4598,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>1</v>
@@ -3809,7 +4651,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>1</v>
@@ -3862,7 +4704,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>1</v>
@@ -3915,7 +4757,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>1</v>
@@ -3968,7 +4810,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>1</v>
@@ -4021,7 +4863,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>1</v>
@@ -4074,7 +4916,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>1</v>
@@ -4127,7 +4969,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>1</v>
@@ -4180,7 +5022,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>1</v>
@@ -4233,7 +5075,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>1</v>
@@ -4286,7 +5128,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>1</v>
@@ -4339,7 +5181,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>1</v>
@@ -4392,7 +5234,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>1</v>
@@ -4445,7 +5287,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
@@ -4498,7 +5340,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>1</v>
@@ -4551,7 +5393,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>1</v>
@@ -4604,7 +5446,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>1</v>
@@ -4657,7 +5499,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>1</v>
@@ -4710,7 +5552,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>1</v>
@@ -4763,7 +5605,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>1</v>
@@ -4816,7 +5658,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>1</v>
@@ -4869,7 +5711,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>1</v>
@@ -4922,7 +5764,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>1</v>
@@ -4975,7 +5817,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>1</v>
@@ -5028,7 +5870,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1</v>
@@ -5081,7 +5923,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>1</v>
@@ -5134,7 +5976,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>1</v>
@@ -5187,7 +6029,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>1</v>
@@ -5240,7 +6082,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>1</v>
@@ -5293,7 +6135,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>1</v>
@@ -5346,7 +6188,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>1</v>
@@ -5399,7 +6241,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>1</v>
@@ -5452,7 +6294,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>1</v>
@@ -5505,7 +6347,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>1</v>
@@ -5558,7 +6400,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>1</v>
@@ -5611,7 +6453,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>1</v>
@@ -5664,7 +6506,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>1</v>
@@ -5717,7 +6559,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>1</v>
@@ -5770,7 +6612,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>1</v>
@@ -5823,7 +6665,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>1</v>
@@ -5876,7 +6718,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>1</v>
@@ -5927,7 +6769,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5935,7 +6777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5953,21 +6795,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -5975,10 +6817,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
@@ -5986,10 +6828,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -5997,10 +6839,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -6008,10 +6850,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -6019,10 +6861,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
@@ -6030,10 +6872,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
@@ -6041,10 +6883,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
@@ -6052,10 +6894,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -6063,10 +6905,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
@@ -6074,10 +6916,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
@@ -6085,10 +6927,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
@@ -6096,10 +6938,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
@@ -6107,660 +6949,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A2:B2)</f>
-        <v>1a</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A3:B3)</f>
-        <v>2a</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A4:B4)</f>
-        <v>3a</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A5:B5)</f>
-        <v>4a</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A6:B6)</f>
-        <v>5a</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A7:B7)</f>
-        <v>6a</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A8:B8)</f>
-        <v>7a</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A9:B9)</f>
-        <v>8a</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A10:B10)</f>
-        <v>9a</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A11:B11)</f>
-        <v>10a</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A12:B12)</f>
-        <v>11a</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A13:B13)</f>
-        <v>12a</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A14:B14)</f>
-        <v>13a</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A15:B15)</f>
-        <v>14a</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A16:B16)</f>
-        <v>15a</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A17:B17)</f>
-        <v>16a</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A18:B18)</f>
-        <v>17a</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A19:B19)</f>
-        <v>18a</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A20:B20)</f>
-        <v>19a</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A21:B21)</f>
-        <v>20a</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A22:B22)</f>
-        <v>21a</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A23:B23)</f>
-        <v>22a</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A24:B24)</f>
-        <v>23a</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A25:B25)</f>
-        <v>24a</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(A26:B26)</f>
-        <v>25a</v>
       </c>
     </row>
   </sheetData>
@@ -6779,28 +6974,635 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="I17" activeCellId="0" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>154</v>
+      <c r="A1" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
+      <c r="B2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A2:B2)</f>
+        <v>1a</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A3:B3)</f>
+        <v>2a</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A4:B4)</f>
+        <v>3a</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A5:B5)</f>
+        <v>4a</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A6:B6)</f>
+        <v>5a</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A7:B7)</f>
+        <v>6a</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A8:B8)</f>
+        <v>7a</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A9:B9)</f>
+        <v>8a</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A10:B10)</f>
+        <v>9a</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A11:B11)</f>
+        <v>10a</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A12:B12)</f>
+        <v>11a</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A13:B13)</f>
+        <v>12a</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A14:B14)</f>
+        <v>13a</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A15:B15)</f>
+        <v>14a</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A16:B16)</f>
+        <v>15a</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A17:B17)</f>
+        <v>16a</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A18:B18)</f>
+        <v>17a</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A19:B19)</f>
+        <v>18a</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A20:B20)</f>
+        <v>19a</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A21:B21)</f>
+        <v>20a</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A22:B22)</f>
+        <v>21a</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A23:B23)</f>
+        <v>22a</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A24:B24)</f>
+        <v>23a</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A25:B25)</f>
+        <v>24a</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(A26:B26)</f>
+        <v>25a</v>
       </c>
     </row>
   </sheetData>
@@ -6815,6 +7617,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
